--- a/medicine/Enfance/Delilah_S._Dawson/Delilah_S._Dawson.xlsx
+++ b/medicine/Enfance/Delilah_S._Dawson/Delilah_S._Dawson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delilah S. Dawson, née le 21 octobre 1977 à Roswell en Géorgie, est une écrivaine américaine de science-fiction et de fantasy.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,30 +553,205 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Star Wars
-Phasma, Pocket, coll. « Star Wars » no 157, 2018 ((en) Phasma, 2017), trad. Julien Bétan, 448 p.  (ISBN 978-2-266-28355-7)
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phasma, Pocket, coll. « Star Wars » no 157, 2018 ((en) Phasma, 2017), trad. Julien Bétan, 448 p.  (ISBN 978-2-266-28355-7)
 (en) Black Spire, 2019
-(en) Rise of the Red Blade, 2023
-Série Blud
-(en) Wicked As They Come, 2012
+(en) Rise of the Red Blade, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Delilah_S._Dawson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delilah_S._Dawson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Blud</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Wicked As They Come, 2012
 (en) Wicked As She Wants, 2013
 (en) Wicked After Midnight, 2014
-(en) Wicked Ever After, 2015
-Série Hit
-(en) Hit, 2015
-(en) Strike, 2016
-Série The Shadow
-Cette série est écrite sous le nom de Lila Bowen.
+(en) Wicked Ever After, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Delilah_S._Dawson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delilah_S._Dawson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Hit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Hit, 2015
+(en) Strike, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Delilah_S._Dawson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delilah_S._Dawson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série The Shadow</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette série est écrite sous le nom de Lila Bowen.
 (en) Wake of Vultures, 2015
 (en) Conspiracy of Ravens, 2016
-(en) Malice of Crows, 2017
-Série The Tales of Pell
-Cette série est coécrite avec Kevin Hearne.
+(en) Malice of Crows, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Delilah_S._Dawson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delilah_S._Dawson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série The Tales of Pell</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Kevin Hearne.
 (en) Kill the Farm Boy, 2018
 (en) No Country for Old Gnomes, 2019
-(en) The Princess Beard, 2019
-Romans indépendants
-(en) The Lumberfox, 2014Roman érotique écrit sous le nom d’Ava Lovelace
+(en) The Princess Beard, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Delilah_S._Dawson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delilah_S._Dawson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) The Lumberfox, 2014Roman érotique écrit sous le nom d’Ava Lovelace
 (en) The Superfox, 2014Roman érotique écrit sous le nom d’Ava Lovelace
 (en) Servants of the Storm, 2014
 À moi, Bayard jeunesse, 2022 ((en) Mine, 2021), trad. Patrice Louinet, 320 p.  (ISBN 979-10-363-4000-0)
@@ -573,34 +762,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Delilah_S._Dawson</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Delilah_S._Dawson</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et nomination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nomination
-Prix Thriller 2023 du meilleur roman pour The Violence[1]</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix Thriller 2023 du meilleur roman pour The Violence</t>
         </is>
       </c>
     </row>
